--- a/DataTable/100文本数据.xlsx
+++ b/DataTable/100文本数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardGame\Project\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B23B57-9475-4E13-9A3A-87C08D53FE73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1E31F1-E597-4987-AA57-A2D2B5CC9F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,15 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>("测试用项目")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>("暂未开放！")</t>
+    <t>"暂未开放！"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"测试用项目"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +397,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,18 +432,18 @@
         <v>100000000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>100000001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
